--- a/Test/Bateria_de_pruebas_Gestion_Trabajos_grados.xlsx
+++ b/Test/Bateria_de_pruebas_Gestion_Trabajos_grados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documentos\Front-trabajosDeGrado\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA670C-D5A0-4513-B698-91B731DAB0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03280E1C-A378-41D5-A601-338A9D02890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20550" windowHeight="15585" tabRatio="707" activeTab="3" xr2:uid="{92623D35-F363-4D72-897A-CCF48FE14038}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="707" activeTab="3" xr2:uid="{92623D35-F363-4D72-897A-CCF48FE14038}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu principal" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
   <si>
     <t>PROYECTO: Gestion de trabajos de grado</t>
   </si>
@@ -428,12 +428,128 @@
   <si>
     <t>BATERIA DE PRUEBAS - GESTION DE TRABAJOS DE GRADO</t>
   </si>
+  <si>
+    <t>Crear usuario sin ID y con rol seleccionado</t>
+  </si>
+  <si>
+    <t>Crear usuario (ID = xyz) y con rol seleccionado</t>
+  </si>
+  <si>
+    <t>Crear usuario sin Rol</t>
+  </si>
+  <si>
+    <t>Crear usuario sin rol y con campos vacios</t>
+  </si>
+  <si>
+    <t>Editar usuario (ID = 0) sin rol y con los demas campos vacios</t>
+  </si>
+  <si>
+    <t>Editar usuario (ID = 0) con rol seleccionado y los demas campos vacios</t>
+  </si>
+  <si>
+    <t>Crear usuario con
+(ID = 99)
+con rol seleccionado y los demas campos vacios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de creacion usuario mediante el boton "Crear usuario", donde se selecciona cualquier rol y se dejan los campos vacios, posteriormente se presiona el boton guardar. </t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de creacion usuario mediante el boton "Crear usuario", donde se selecciona cualquier rol y se ingresa el {ID=xyz} y se dejan los demas campos vacios, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Impedir la creacion de un usuario con ID alfabetico.</t>
+  </si>
+  <si>
+    <t>Impedir la creacion de un usuario sin ID.</t>
+  </si>
+  <si>
+    <t>Impide la creacion de un usuario sin ID.</t>
+  </si>
+  <si>
+    <t>Impedir la creacion de un usuario sin ROL.</t>
+  </si>
+  <si>
+    <t>El servidor se detuvo inesperadamente.</t>
+  </si>
+  <si>
+    <t>Falló</t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de creacion usuario mediante el boton "Crear usuario", ingresa todos los campos correspondientes {id='9999', usuario='user', nombres='userName', contrasena='password', correo='user@userexample.com'} y no se escoge rol, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de creacion usuario mediante el boton "Crear usuario", se dejan los campos vacios y no se escoge rol, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Crear usuario con
+(ID = 99) sin rol y los demas campos vacios</t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de creacion usuario mediante el boton "Crear usuario", se llena el ID = 99, se escoge rol y se dejan los demas campos vacios, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de creacion usuario mediante el boton "Crear usuario", se llena el ID = 99, no se escoge rol y se dejan los demas campos vacios, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Impedir la creacion de un usuario con campos vacios.</t>
+  </si>
+  <si>
+    <t>Se crea el usuario ID=99 con campos vacios.</t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de edicion de usuario mediante el boton "Editar usuario", se dejan los campos vacios y no se escoge rol, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Impedir la edicion de un usuario sin ROL.</t>
+  </si>
+  <si>
+    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al formulario de edicion de usuario mediante el boton "Editar usuario", se dejan los campos vacios y se escoge rol, posteriormente se presiona el boton guardar.</t>
+  </si>
+  <si>
+    <t>Impedir la edicion de un usuario sin campos vacios.</t>
+  </si>
+  <si>
+    <t>Se edita el usuario ID=0 sin nombre, usuario y correo.</t>
+  </si>
+  <si>
+    <t>NO Pasó</t>
+  </si>
+  <si>
+    <t>Las siguientes pruebas se ejecutaron de forma manual y automatica.
+Las pruebas que fallaron solo se hicieron de manera manual en cambio las que pasaron con exito estan disponibles de manera automatica asi:
+Ejecutar la aplicación Selenium IDE
+Abrir el archivo de pruebas testGestionTrabajosGrado
+Escoger la Test Suit "Users"
+Escoger el primer test y presionar, ejecutar todos los tests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La prueba  8 es exitosa porque impide la creación de un usuario sin un ID, sin embargo, no se proporciona al usuario final información acerca de por qué la creación no se llevó a cabo.
+• La prueba 9 es exitosa porque impide la creación de un usuario con ID alfabetico, sin embargo, no se proporciona al usuario final información acerca de por qué la creación no se llevó a cabo.
+• En la prueba 10, 11, 12 y 14 se detuvo el servidor backend al presionar el boton guardar.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +614,17 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -531,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -824,11 +951,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -854,6 +1073,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -863,40 +1175,199 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,260 +1379,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3410,128 +3728,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3565,1073 +3883,1153 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="101" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="84"/>
+      <c r="E5" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="65" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="71"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="65" t="s">
+      <c r="D7" s="82"/>
+      <c r="E7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="65" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="56"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="84"/>
     </row>
     <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="58"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
     </row>
     <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="80"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
     </row>
     <row r="18" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
     </row>
     <row r="19" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82" t="s">
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82" t="s">
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
     </row>
     <row r="21" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
     </row>
     <row r="25" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="70"/>
     </row>
     <row r="26" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="30" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="32"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="11"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
     </row>
     <row r="35" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="26"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="110"/>
     </row>
     <row r="36" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="107"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="109"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="106"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
     </row>
     <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="30" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="32"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
     </row>
     <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="11"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
     </row>
     <row r="40" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94" t="s">
+      <c r="D40" s="61"/>
+      <c r="E40" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94" t="s">
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
     </row>
     <row r="41" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="99"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="62"/>
     </row>
     <row r="42" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94" t="s">
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
     </row>
     <row r="43" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
     </row>
     <row r="44" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
     </row>
     <row r="46" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
     </row>
     <row r="47" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
     </row>
     <row r="48" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
     </row>
     <row r="49" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
     </row>
     <row r="50" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
     </row>
     <row r="51" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
     </row>
     <row r="52" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="84" t="s">
+      <c r="C52" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="84" t="s">
+      <c r="E52" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84" t="s">
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="84" t="s">
+      <c r="M52" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="84"/>
+      <c r="N52" s="57"/>
     </row>
     <row r="53" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
     </row>
     <row r="54" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
     </row>
     <row r="55" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
     </row>
     <row r="56" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
     </row>
     <row r="57" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
     </row>
     <row r="58" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="87"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="89"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="46"/>
     </row>
     <row r="59" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="50"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="49"/>
     </row>
     <row r="60" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="29"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="30" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N61" s="32"/>
+      <c r="N61" s="29"/>
     </row>
     <row r="62" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="40"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="37"/>
     </row>
     <row r="63" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="42"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="39"/>
     </row>
     <row r="64" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="9" t="s">
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="11"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
     </row>
     <row r="65" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="13" t="s">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="15"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="19"/>
     </row>
     <row r="66" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="20"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="22"/>
     </row>
     <row r="67" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="21"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="25"/>
     </row>
     <row r="68" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="90"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="23"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="C32:H35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:N33"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="C25:N26"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:N9"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C15:N18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:I42"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:N44"/>
+    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="C46:N46"/>
+    <mergeCell ref="C47:N48"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="C50:N51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="M56:N56"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="C65:H68"/>
     <mergeCell ref="I65:I66"/>
@@ -4648,86 +5046,6 @@
     <mergeCell ref="C58:N59"/>
     <mergeCell ref="C60:N60"/>
     <mergeCell ref="E54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="C49:N49"/>
-    <mergeCell ref="C50:N51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:N44"/>
-    <mergeCell ref="C45:N45"/>
-    <mergeCell ref="C46:N46"/>
-    <mergeCell ref="C47:N48"/>
-    <mergeCell ref="C40:D42"/>
-    <mergeCell ref="E40:I42"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="C39:N39"/>
-    <mergeCell ref="C36:N36"/>
-    <mergeCell ref="C12:N13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:I6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="C25:N26"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C29:L30"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="C32:H35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:N33"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4757,274 +5075,274 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="99">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62">
         <v>1</v>
       </c>
-      <c r="N4" s="99"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="98" t="s">
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="99"/>
+      <c r="N5" s="62"/>
     </row>
     <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="95"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84" t="s">
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="84" t="s">
+      <c r="M16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="84"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
@@ -5033,18 +5351,18 @@
       <c r="D18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
@@ -5053,18 +5371,18 @@
       <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
     </row>
     <row r="20" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
@@ -5073,18 +5391,18 @@
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
     </row>
     <row r="21" spans="3:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="7">
@@ -5093,18 +5411,18 @@
       <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
     </row>
     <row r="22" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
@@ -5113,18 +5431,18 @@
       <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
     </row>
     <row r="23" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="7">
@@ -5133,18 +5451,18 @@
       <c r="D23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
     </row>
     <row r="24" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
@@ -5153,18 +5471,18 @@
       <c r="D24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
     </row>
     <row r="25" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
@@ -5173,18 +5491,18 @@
       <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
     </row>
     <row r="26" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
@@ -5193,18 +5511,18 @@
       <c r="D26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
     </row>
     <row r="27" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="7">
@@ -5213,239 +5531,216 @@
       <c r="D27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="89"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="30" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="32"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="39"/>
     </row>
     <row r="35" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="42"/>
     </row>
     <row r="36" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
     </row>
     <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="90"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="23"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:N8"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="E4:I6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:N15"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="C36:H39"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:N37"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N30"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E23:K23"/>
     <mergeCell ref="C33:L34"/>
     <mergeCell ref="M33:N34"/>
     <mergeCell ref="M16:N17"/>
@@ -5462,15 +5757,38 @@
     <mergeCell ref="E24:K24"/>
     <mergeCell ref="E25:K25"/>
     <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="C36:H39"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:N37"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:N15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:N8"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="E4:I6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5483,9 +5801,11 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="C2:N38"/>
+  <dimension ref="C2:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5500,332 +5820,332 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="65" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68">
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="98">
         <v>1</v>
       </c>
-      <c r="N4" s="69"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="70">
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="100">
         <v>45211</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="65" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="65" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="72" t="s">
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="73"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="56"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="58"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="80"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
     </row>
     <row r="18" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82" t="s">
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82" t="s">
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
     </row>
     <row r="20" spans="3:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="52" t="s">
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="52" t="s">
+      <c r="I20" s="141"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="4" t="s">
+      <c r="L20" s="141"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="143" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5836,21 +6156,21 @@
       <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="51" t="s">
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51" t="s">
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="4" t="s">
         <v>67</v>
       </c>
@@ -5862,21 +6182,21 @@
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51" t="s">
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="4" t="s">
         <v>67</v>
       </c>
@@ -5888,21 +6208,21 @@
       <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51" t="s">
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51" t="s">
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="4" t="s">
         <v>67</v>
       </c>
@@ -5914,21 +6234,21 @@
       <c r="D24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51" t="s">
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51" t="s">
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
       <c r="N24" s="4" t="s">
         <v>67</v>
       </c>
@@ -5940,285 +6260,1244 @@
       <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51" t="s">
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51" t="s">
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
       <c r="N25" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
+      <c r="C26" s="112">
         <v>7</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51" t="s">
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51" t="s">
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="4" t="s">
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="30" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="39" t="s">
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N32" s="40"/>
-    </row>
-    <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="42"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
     </row>
     <row r="34" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="9" t="s">
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="133"/>
     </row>
     <row r="35" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13" t="s">
+      <c r="C35" s="122"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="20"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="127"/>
       <c r="I37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
     </row>
     <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="130"/>
       <c r="I38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="90">
+      <c r="J38" s="26">
         <v>45211</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="23"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="138"/>
+    </row>
+    <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+    </row>
+    <row r="40" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="77"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="98">
+        <v>2</v>
+      </c>
+      <c r="N42" s="99"/>
+    </row>
+    <row r="43" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="77"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="100">
+        <v>45230</v>
+      </c>
+      <c r="N43" s="101"/>
+    </row>
+    <row r="44" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="82"/>
+      <c r="E44" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="77"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="N44" s="80"/>
+    </row>
+    <row r="45" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="84"/>
+      <c r="E45" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="84"/>
+    </row>
+    <row r="46" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="85"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="86"/>
+    </row>
+    <row r="47" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="52"/>
+    </row>
+    <row r="48" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="52"/>
+    </row>
+    <row r="49" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="70"/>
+    </row>
+    <row r="50" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+    </row>
+    <row r="51" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="73"/>
+    </row>
+    <row r="52" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+    </row>
+    <row r="53" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+    </row>
+    <row r="54" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+    </row>
+    <row r="55" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+    </row>
+    <row r="56" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+    </row>
+    <row r="58" spans="3:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="141"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="141"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="L58" s="141"/>
+      <c r="M58" s="142"/>
+      <c r="N58" s="143" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="103"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="5">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="5">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="5">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63" s="105"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="112">
+        <v>7</v>
+      </c>
+      <c r="D64" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="105"/>
+      <c r="M65" s="105"/>
+      <c r="N65" s="115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="I66" s="105"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="105"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="103"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="103"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="L68" s="105"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="103"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="103"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="103"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="103"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="L72" s="105"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="136"/>
+    </row>
+    <row r="74" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="70"/>
+    </row>
+    <row r="75" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="49"/>
+    </row>
+    <row r="76" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
+    </row>
+    <row r="77" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="29"/>
+    </row>
+    <row r="78" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="117"/>
+      <c r="I78" s="117"/>
+      <c r="J78" s="117"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N78" s="37"/>
+    </row>
+    <row r="79" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="119"/>
+      <c r="D79" s="120"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="120"/>
+      <c r="I79" s="120"/>
+      <c r="J79" s="120"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="121"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+    </row>
+    <row r="80" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="132"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="133"/>
+      <c r="I80" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="132"/>
+      <c r="K80" s="132"/>
+      <c r="L80" s="132"/>
+      <c r="M80" s="132"/>
+      <c r="N80" s="133"/>
+    </row>
+    <row r="81" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="122"/>
+      <c r="D81" s="123"/>
+      <c r="E81" s="123"/>
+      <c r="F81" s="123"/>
+      <c r="G81" s="123"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="17"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="19"/>
+    </row>
+    <row r="82" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="125"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="22"/>
+    </row>
+    <row r="83" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="125"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="25"/>
+    </row>
+    <row r="84" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="128"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
+      <c r="G84" s="129"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="26">
+        <v>45230</v>
+      </c>
+      <c r="K84" s="137"/>
+      <c r="L84" s="137"/>
+      <c r="M84" s="137"/>
+      <c r="N84" s="138"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C11:N12"/>
-    <mergeCell ref="C14:N17"/>
+  <mergeCells count="146">
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="C78:L79"/>
+    <mergeCell ref="M78:N79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="I80:N80"/>
+    <mergeCell ref="C81:H84"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:N82"/>
+    <mergeCell ref="C74:N75"/>
+    <mergeCell ref="C76:N76"/>
+    <mergeCell ref="C77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="C73:N73"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:G57"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="C49:N50"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="C52:N55"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:N46"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="C41:N41"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:I43"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="C35:H38"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:N8"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C32:L33"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="C28:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K18:M19"/>
-    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="J35:N36"/>
+    <mergeCell ref="I35:I36"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:M25"/>
@@ -6235,13 +7514,43 @@
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:M24"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="J35:N36"/>
-    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K18:M19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="C14:N17"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:N8"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C32:L33"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C28:N29"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C11:N12"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6271,308 +7580,308 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="65" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68">
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="98">
         <v>1</v>
       </c>
-      <c r="N4" s="69"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="100" t="s">
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="69"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="65" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="65" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="72" t="s">
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="73"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="56"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="58"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="80"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
     </row>
     <row r="18" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82" t="s">
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82" t="s">
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
     </row>
     <row r="20" spans="3:14" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
@@ -6581,19 +7890,19 @@
       <c r="D20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="52" t="s">
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="3:14" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,216 +7910,225 @@
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="107"/>
     </row>
     <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="70"/>
     </row>
     <row r="24" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="25" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="30" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="32"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="90"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C30:H33"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:L28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C14:N17"/>
     <mergeCell ref="C25:N25"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="E20:G20"/>
@@ -6826,26 +8144,17 @@
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="C22:N22"/>
     <mergeCell ref="C23:N24"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C14:N17"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:N8"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C27:L28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="C30:H33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J33:N33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test/Bateria_de_pruebas_Gestion_Trabajos_grados.xlsx
+++ b/Test/Bateria_de_pruebas_Gestion_Trabajos_grados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documentos\Front-trabajosDeGrado\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03280E1C-A378-41D5-A601-338A9D02890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E0AF37-3704-4FAD-9CF3-8860AC5DE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="707" activeTab="3" xr2:uid="{92623D35-F363-4D72-897A-CCF48FE14038}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="707" activeTab="4" xr2:uid="{92623D35-F363-4D72-897A-CCF48FE14038}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu principal" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="150">
   <si>
     <t>PROYECTO: Gestion de trabajos de grado</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>HEU_1</t>
-  </si>
-  <si>
-    <t>xx/10/2023</t>
   </si>
   <si>
     <t>Graphic User Interface</t>
@@ -392,15 +389,6 @@
 Escoger el primer test y presionar, ejecutar todos los tests</t>
   </si>
   <si>
-    <t>Subir formato</t>
-  </si>
-  <si>
-    <t>Abre la direccion IP de la aplicación en una nueva ventana del navegador, donde accede al menu de subir formato mediante el boton "Subir formato", selecciona el formato y posteriormente presiona el boton guardar y se verifica el mensaje de que el formato se subio correctamente.</t>
-  </si>
-  <si>
-    <t>El formato debe subirse con éxito</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROYECTO: </t>
   </si>
   <si>
@@ -543,6 +531,42 @@
 • La prueba 9 es exitosa porque impide la creación de un usuario con ID alfabetico, sin embargo, no se proporciona al usuario final información acerca de por qué la creación no se llevó a cabo.
 • En la prueba 10, 11, 12 y 14 se detuvo el servidor backend al presionar el boton guardar.</t>
     </r>
+  </si>
+  <si>
+    <t>Es necesario que el backend y la base de datos estén en funcionamiento con el usuario test y los estudiantes creados con anterioridad en la base de datos.</t>
+  </si>
+  <si>
+    <t>GUS_2</t>
+  </si>
+  <si>
+    <t>Se entiende claramente toda la informacion presentada.</t>
+  </si>
+  <si>
+    <t>No hay manera de volver atrás una vez se inicia un proceso como "Crear usuario" o "Llenar formato".</t>
+  </si>
+  <si>
+    <t>Se entiende claramente la estructura y organización de la aplicación web.</t>
+  </si>
+  <si>
+    <t>A pesar de que si hay ayudas que previenen errores por parte de los usuarios, no estan presentes en todos los campos, como en el campo "Identificacion", de crear o editar usuario.</t>
+  </si>
+  <si>
+    <t>A pesar de que si hay mensajes de confirmacion y verificacion, no estan presentes en todos los lugares, como cuando se crea un usuario con una identificacion no valida.</t>
+  </si>
+  <si>
+    <t>Cada vista de la aplicación proporciona la informacion necesaria para cualquier tarea.</t>
+  </si>
+  <si>
+    <t>Los botones de navegabilidad para cada tarea son facilmente visibles y de acceso directo.</t>
+  </si>
+  <si>
+    <t>La interfaz posee solo los elementos necesarios para cada vista, sin colores estridentes y sin alto contraste, con texto  legible y contrastado.</t>
+  </si>
+  <si>
+    <t>No hay ningun texto contextual ni documentacion sobre el uso de la aplicación.</t>
+  </si>
+  <si>
+    <t>La aplicación no maneja todos los errores posibles dando paso incluso a errores bloqueantes, sin ofrecer solucion.</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1073,6 +1097,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,12 +1247,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,107 +1415,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3718,7 +3787,7 @@
   <dimension ref="D2:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3728,128 +3797,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="D3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3868,7 +3937,9 @@
   </sheetPr>
   <dimension ref="C1:N68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3877,1076 +3948,1077 @@
     <col min="3" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="11" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="C2" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="89" t="s">
+      <c r="C3" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="76" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="76" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="101"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="105"/>
     </row>
     <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="76" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="80"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="84"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="86"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="90"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
     </row>
     <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
     </row>
     <row r="18" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
     </row>
     <row r="19" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75" t="s">
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75" t="s">
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
     </row>
     <row r="21" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="104"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="111"/>
     </row>
     <row r="25" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="70"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
     </row>
     <row r="26" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="27" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="29"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="40" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="48"/>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="31"/>
     </row>
     <row r="35" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="108"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="110"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="114"/>
     </row>
     <row r="36" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+    </row>
+    <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="35"/>
+    </row>
+    <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
+    </row>
+    <row r="40" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="67"/>
-    </row>
-    <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="42"/>
-    </row>
-    <row r="40" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61" t="s">
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
     </row>
     <row r="41" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="62"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="66"/>
     </row>
     <row r="42" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
     </row>
     <row r="43" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
     </row>
     <row r="44" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
     </row>
     <row r="45" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
     </row>
     <row r="46" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
     </row>
     <row r="47" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
     </row>
     <row r="48" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
     </row>
     <row r="49" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
     </row>
     <row r="50" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
     </row>
     <row r="51" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
     </row>
     <row r="52" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="N52" s="57"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
     </row>
     <row r="53" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
     </row>
     <row r="54" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="158"/>
+      <c r="M54" s="158"/>
+      <c r="N54" s="159"/>
     </row>
     <row r="55" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
+      <c r="N55" s="105"/>
     </row>
     <row r="56" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="105"/>
     </row>
     <row r="57" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
     </row>
     <row r="58" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="46"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="52"/>
     </row>
     <row r="59" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="49"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="55"/>
     </row>
     <row r="60" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="52"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="58"/>
     </row>
     <row r="61" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="27" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N61" s="29"/>
+      <c r="N61" s="35"/>
     </row>
     <row r="62" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="37"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="43"/>
     </row>
     <row r="63" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="45"/>
     </row>
     <row r="64" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="40" t="s">
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="42"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="48"/>
     </row>
     <row r="65" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="19"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="25"/>
     </row>
     <row r="66" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="22"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="28"/>
     </row>
     <row r="67" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
       <c r="I67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="23"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="31"/>
     </row>
     <row r="68" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="26"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="25"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="96">
@@ -5022,14 +5094,15 @@
     <mergeCell ref="C50:N51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="E52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:N53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="C65:H68"/>
     <mergeCell ref="I65:I66"/>
@@ -5045,7 +5118,6 @@
     <mergeCell ref="C57:N57"/>
     <mergeCell ref="C58:N59"/>
     <mergeCell ref="C60:N60"/>
-    <mergeCell ref="E54:K54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5060,7 +5132,9 @@
   </sheetPr>
   <dimension ref="C2:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5070,693 +5144,740 @@
     <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="12.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66">
         <v>1</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="66"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="63" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="67">
+        <v>45230</v>
+      </c>
+      <c r="N5" s="66"/>
+    </row>
+    <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="62"/>
-    </row>
-    <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="64" t="s">
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+    </row>
+    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+    </row>
+    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-    </row>
-    <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-    </row>
-    <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="60" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+    </row>
+    <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+    </row>
+    <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+    </row>
+    <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-    </row>
-    <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="55" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+    </row>
+    <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+    </row>
+    <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-    </row>
-    <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-    </row>
-    <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="57" t="s">
+      <c r="E16" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="57"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-    </row>
-    <row r="18" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+    </row>
+    <row r="18" spans="3:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-    </row>
-    <row r="19" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="156"/>
+    </row>
+    <row r="19" spans="3:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-    </row>
-    <row r="20" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="151"/>
+    </row>
+    <row r="20" spans="3:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <v>3</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-    </row>
-    <row r="21" spans="3:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="151"/>
+    </row>
+    <row r="21" spans="3:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="7">
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-    </row>
-    <row r="22" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="149" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="151"/>
+    </row>
+    <row r="22" spans="3:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-    </row>
-    <row r="23" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="149" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="151"/>
+    </row>
+    <row r="23" spans="3:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="7">
         <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-    </row>
-    <row r="24" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="151"/>
+    </row>
+    <row r="24" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>7</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-    </row>
-    <row r="25" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="151"/>
+    </row>
+    <row r="25" spans="3:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
         <v>8</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="149" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="151"/>
     </row>
     <row r="26" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-    </row>
-    <row r="27" spans="3:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="151"/>
+    </row>
+    <row r="27" spans="3:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="7">
         <v>10</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="151"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="55"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="52"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="58"/>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="27" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="29"/>
+      <c r="N32" s="35"/>
     </row>
     <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
     </row>
     <row r="35" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="40" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="42"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="48"/>
     </row>
     <row r="36" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
     </row>
     <row r="37" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
+      <c r="J38" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
+      <c r="J39" s="32">
+        <v>45230</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="C33:L34"/>
     <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
     <mergeCell ref="C28:N28"/>
     <mergeCell ref="C29:N30"/>
     <mergeCell ref="C31:N31"/>
@@ -5803,8 +5924,8 @@
   </sheetPr>
   <dimension ref="C2:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5820,333 +5941,333 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="102">
+        <v>1</v>
+      </c>
+      <c r="N4" s="103"/>
+    </row>
+    <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="104">
+        <v>45211</v>
+      </c>
+      <c r="N5" s="105"/>
+    </row>
+    <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="98">
-        <v>1</v>
-      </c>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="100">
-        <v>45211</v>
-      </c>
-      <c r="N5" s="101"/>
-    </row>
-    <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="76" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79" t="s">
+      <c r="N6" s="84"/>
+    </row>
+    <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="80"/>
-    </row>
-    <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="88"/>
+    </row>
+    <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="90"/>
+    </row>
+    <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+    </row>
+    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="84"/>
-    </row>
-    <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="86"/>
-    </row>
-    <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
-    </row>
-    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-    </row>
-    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+    </row>
+    <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
-    </row>
-    <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="73"/>
-    </row>
-    <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
     </row>
     <row r="18" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75" t="s">
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75" t="s">
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
     </row>
     <row r="20" spans="3:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="140" t="s">
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="140" t="s">
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="L20" s="141"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="143" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,25 +6275,25 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
       <c r="N21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6180,25 +6301,25 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105" t="s">
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
       <c r="N22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6206,25 +6327,25 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105" t="s">
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
       <c r="N23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,25 +6353,25 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105" t="s">
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
       <c r="N24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -6258,589 +6379,589 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105" t="s">
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105" t="s">
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="112">
-        <v>7</v>
-      </c>
-      <c r="D26" s="113" t="s">
+      <c r="E26" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="114" t="s">
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114" t="s">
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114" t="s">
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
+    </row>
+    <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
-    </row>
-    <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="68" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+    </row>
+    <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+    </row>
+    <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
+    </row>
+    <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="35"/>
+    </row>
+    <row r="32" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="70"/>
-    </row>
-    <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
-    </row>
-    <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
-    </row>
-    <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="29"/>
-    </row>
-    <row r="32" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N32" s="37"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="39"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
     </row>
     <row r="34" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="131" t="s">
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="133"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="123"/>
     </row>
     <row r="35" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="122"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="15" t="s">
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="125"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="127"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="135"/>
       <c r="I37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
+      <c r="J37" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="130"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="138"/>
       <c r="I38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="32">
         <v>45211</v>
       </c>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="138"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="140"/>
     </row>
     <row r="39" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="92" t="s">
+      <c r="D42" s="88"/>
+      <c r="E42" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="81"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="102">
+        <v>2</v>
+      </c>
+      <c r="N42" s="103"/>
+    </row>
+    <row r="43" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="81"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="104">
+        <v>45230</v>
+      </c>
+      <c r="N43" s="105"/>
+    </row>
+    <row r="44" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="86"/>
+      <c r="E44" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="98">
-        <v>2</v>
-      </c>
-      <c r="N42" s="99"/>
-    </row>
-    <row r="43" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="77"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="100">
-        <v>45230</v>
-      </c>
-      <c r="N43" s="101"/>
-    </row>
-    <row r="44" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="76" t="s">
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="81"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="77"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="79" t="s">
+      <c r="N44" s="84"/>
+    </row>
+    <row r="45" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="88"/>
+      <c r="E45" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="N44" s="80"/>
-    </row>
-    <row r="45" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="83" t="s">
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="88"/>
+    </row>
+    <row r="46" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="90"/>
+    </row>
+    <row r="47" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="58"/>
+    </row>
+    <row r="48" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="58"/>
+    </row>
+    <row r="49" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="84"/>
-    </row>
-    <row r="46" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="86"/>
-    </row>
-    <row r="47" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="52"/>
-    </row>
-    <row r="48" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="52"/>
-    </row>
-    <row r="49" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="70"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="74"/>
     </row>
     <row r="50" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="55"/>
     </row>
     <row r="51" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="73"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="77"/>
     </row>
     <row r="52" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
+      <c r="C52" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
     </row>
     <row r="53" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
     </row>
     <row r="54" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
     </row>
     <row r="55" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
     </row>
     <row r="56" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="75" t="s">
+      <c r="E56" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75" t="s">
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75" t="s">
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75" t="s">
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
     </row>
     <row r="58" spans="3:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>1</v>
       </c>
-      <c r="D58" s="139" t="s">
+      <c r="D58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="140" t="s">
+      <c r="F58" s="128"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="141"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="140" t="s">
+      <c r="I58" s="128"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="I58" s="141"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="140" t="s">
+      <c r="L58" s="128"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="L58" s="141"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="143" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="59" spans="3:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6848,25 +6969,25 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="102" t="s">
+      <c r="F59" s="107"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="103"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="105" t="s">
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="L59" s="105"/>
-      <c r="M59" s="105"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
       <c r="N59" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="3:14" ht="165" customHeight="1" x14ac:dyDescent="0.25">
@@ -6874,25 +6995,25 @@
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="105" t="s">
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105" t="s">
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L60" s="105"/>
-      <c r="M60" s="105"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
       <c r="N60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="3:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6900,25 +7021,25 @@
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="105" t="s">
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105" t="s">
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L61" s="105"/>
-      <c r="M61" s="105"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
       <c r="N61" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="3:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6926,25 +7047,25 @@
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="105" t="s">
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105" t="s">
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
+      <c r="L62" s="109"/>
+      <c r="M62" s="109"/>
       <c r="N62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="3:14" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6952,51 +7073,51 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="105" t="s">
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105" t="s">
+      <c r="I63" s="109"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105" t="s">
+      <c r="L63" s="109"/>
+      <c r="M63" s="109"/>
+      <c r="N63" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="9">
+        <v>7</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L63" s="105"/>
-      <c r="M63" s="105"/>
-      <c r="N63" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="112">
-        <v>7</v>
-      </c>
-      <c r="D64" s="113" t="s">
+      <c r="E64" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="114" t="s">
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114" t="s">
+      <c r="I64" s="141"/>
+      <c r="J64" s="141"/>
+      <c r="K64" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="L64" s="114"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="115" t="s">
-        <v>67</v>
+      <c r="L64" s="141"/>
+      <c r="M64" s="141"/>
+      <c r="N64" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="3:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7004,25 +7125,25 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="L65" s="105"/>
-      <c r="M65" s="105"/>
-      <c r="N65" s="115" t="s">
-        <v>67</v>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="3:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7030,25 +7151,25 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="I66" s="105"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="L66" s="105"/>
-      <c r="M66" s="105"/>
-      <c r="N66" s="115" t="s">
-        <v>67</v>
+        <v>109</v>
+      </c>
+      <c r="E66" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" s="109"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="L66" s="109"/>
+      <c r="M66" s="109"/>
+      <c r="N66" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="3:14" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7056,25 +7177,25 @@
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="F67" s="103"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="L67" s="105"/>
-      <c r="M67" s="105"/>
+        <v>110</v>
+      </c>
+      <c r="E67" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="107"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="109"/>
+      <c r="M67" s="109"/>
       <c r="N67" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="3:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7082,25 +7203,25 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="103"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="107"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="L68" s="109"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="L68" s="105"/>
-      <c r="M68" s="105"/>
-      <c r="N68" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="3:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7108,25 +7229,25 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="F69" s="103"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="L69" s="105"/>
-      <c r="M69" s="105"/>
+      <c r="E69" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" s="107"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" s="109"/>
+      <c r="J69" s="109"/>
+      <c r="K69" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="L69" s="109"/>
+      <c r="M69" s="109"/>
       <c r="N69" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="3:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7134,25 +7255,25 @@
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="103"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
+        <v>114</v>
+      </c>
+      <c r="E70" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="107"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" s="109"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="L70" s="109"/>
+      <c r="M70" s="109"/>
       <c r="N70" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="3:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -7160,25 +7281,25 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="103"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
+        <v>112</v>
+      </c>
+      <c r="E71" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="107"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="I71" s="109"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="L71" s="109"/>
+      <c r="M71" s="109"/>
       <c r="N71" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="3:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7186,222 +7307,222 @@
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" s="103"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="107"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="125"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="125"/>
+      <c r="M73" s="125"/>
+      <c r="N73" s="126"/>
+    </row>
+    <row r="74" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="74"/>
+    </row>
+    <row r="75" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="55"/>
+    </row>
+    <row r="76" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="58"/>
+    </row>
+    <row r="77" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="35"/>
+    </row>
+    <row r="78" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="I72" s="105"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="L72" s="105"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="135"/>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="136"/>
-    </row>
-    <row r="74" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="70"/>
-    </row>
-    <row r="75" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="49"/>
-    </row>
-    <row r="76" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
-    </row>
-    <row r="77" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N77" s="29"/>
-    </row>
-    <row r="78" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="117"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N78" s="37"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="117"/>
+      <c r="M78" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="N78" s="43"/>
     </row>
     <row r="79" spans="3:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="119"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="120"/>
-      <c r="K79" s="120"/>
-      <c r="L79" s="121"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="39"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
+      <c r="G79" s="119"/>
+      <c r="H79" s="119"/>
+      <c r="I79" s="119"/>
+      <c r="J79" s="119"/>
+      <c r="K79" s="119"/>
+      <c r="L79" s="120"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="45"/>
     </row>
     <row r="80" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="131" t="s">
+      <c r="C80" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="132"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="133"/>
-      <c r="I80" s="131" t="s">
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="123"/>
+      <c r="I80" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="J80" s="132"/>
-      <c r="K80" s="132"/>
-      <c r="L80" s="132"/>
-      <c r="M80" s="132"/>
-      <c r="N80" s="133"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="122"/>
+      <c r="M80" s="122"/>
+      <c r="N80" s="123"/>
     </row>
     <row r="81" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="122"/>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="123"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="15" t="s">
+      <c r="C81" s="130"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="132"/>
+      <c r="I81" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="19"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="25"/>
     </row>
     <row r="82" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="125"/>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="22"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="135"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="28"/>
     </row>
     <row r="83" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="125"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="127"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="135"/>
       <c r="I83" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J83" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="25"/>
+      <c r="J83" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="31"/>
     </row>
     <row r="84" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="128"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="130"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="137"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="138"/>
       <c r="I84" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J84" s="26">
+      <c r="J84" s="32">
         <v>45230</v>
       </c>
-      <c r="K84" s="137"/>
-      <c r="L84" s="137"/>
-      <c r="M84" s="137"/>
-      <c r="N84" s="138"/>
+      <c r="K84" s="139"/>
+      <c r="L84" s="139"/>
+      <c r="M84" s="139"/>
+      <c r="N84" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="146">
@@ -7490,6 +7611,7 @@
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="J43:L43"/>
     <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K23:M23"/>
     <mergeCell ref="C35:H38"/>
     <mergeCell ref="J37:N37"/>
     <mergeCell ref="J38:N38"/>
@@ -7501,6 +7623,21 @@
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:M25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K18:M19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="C14:N17"/>
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="E21:G21"/>
@@ -7510,18 +7647,6 @@
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K18:M19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="C14:N17"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:N8"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="C32:L33"/>
@@ -7531,12 +7656,6 @@
     <mergeCell ref="C27:N27"/>
     <mergeCell ref="C28:N29"/>
     <mergeCell ref="C30:N30"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C13:N13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -7551,6 +7670,8 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7565,7 +7686,7 @@
   </sheetPr>
   <dimension ref="C2:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7580,532 +7701,526 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="102">
+        <v>1</v>
+      </c>
+      <c r="N4" s="103"/>
+    </row>
+    <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="142">
+        <v>45230</v>
+      </c>
+      <c r="N5" s="103"/>
+    </row>
+    <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="98">
-        <v>1</v>
-      </c>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="99"/>
-    </row>
-    <row r="6" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="76" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79" t="s">
+      <c r="N6" s="84"/>
+    </row>
+    <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="80"/>
-    </row>
-    <row r="7" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="88"/>
+    </row>
+    <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="90"/>
+    </row>
+    <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+    </row>
+    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+    </row>
+    <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="84"/>
-    </row>
-    <row r="8" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="86"/>
-    </row>
-    <row r="9" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
-    </row>
-    <row r="10" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-    </row>
-    <row r="11" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
-    </row>
-    <row r="12" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="73"/>
-    </row>
-    <row r="14" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
     </row>
     <row r="15" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
     </row>
     <row r="16" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
     </row>
     <row r="18" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75" t="s">
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75" t="s">
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-    </row>
-    <row r="20" spans="3:14" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+    </row>
+    <row r="20" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="103"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="3:14" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="104"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="107"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="111"/>
     </row>
     <row r="23" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="70"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
     </row>
     <row r="24" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="52"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
     </row>
     <row r="26" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="27" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="29"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="45"/>
     </row>
     <row r="29" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="40" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
